--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562937.282011496</v>
+        <v>-513786.5188001223</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17369085.08859304</v>
+        <v>16732119.5794859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484435</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9321578.406766022</v>
+        <v>9334554.770221327</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>277.4821419551661</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>302.992120062679</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>155.2773746523704</v>
+        <v>67.84972440587237</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -868,19 +868,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>71.02169211851643</v>
+        <v>129.0632185641022</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4535106721994</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>152.5004364948338</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>223.9617913485548</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>92.91584070067225</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>191.1212270001092</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>290.1245496457807</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>138.6403063721262</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170428</v>
+        <v>24.34318456170485</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>146.7084203042799</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>130.6530054213164</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>158.0004299352732</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>259.5451702164753</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>5.990622819019422</v>
+        <v>144.4937753855482</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>233.2664748099902</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>229.9363968614127</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>158.3040288668734</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2290,10 +2290,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170481</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>260.6622565498274</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>46.45303019605524</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170549</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277812</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3509,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H38" t="n">
         <v>270.0031426724685</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925395</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3560,7 +3560,7 @@
         <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432429</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934433</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3718,7 +3718,7 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W40" t="n">
         <v>253.070430030824</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432346</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934888</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1348.708787519165</v>
+        <v>1199.696110809903</v>
       </c>
       <c r="C2" t="n">
-        <v>920.1271132564331</v>
+        <v>761.553637993326</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>761.553637993326</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>761.553637993326</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>333.6862084025337</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>1391.130783552459</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>1390.315733003896</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X2" t="n">
-        <v>1375.213673623611</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y2" t="n">
-        <v>1370.967953963668</v>
+        <v>1625.99568129481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1097.285950678907</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.524240083786</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X4" t="n">
-        <v>1516.524240083786</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y4" t="n">
-        <v>1289.104569397894</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>958.9147199317615</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1405.37712000546</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="W5" t="n">
-        <v>1404.562069456897</v>
+        <v>2235.159787501254</v>
       </c>
       <c r="X5" t="n">
-        <v>985.4196060362078</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.1738863762653</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>1146.724024919814</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>901.3322702532269</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>673.9125995673351</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.704096154197</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.48006448899</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.610683703839</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.876342902538</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>737.0089133117458</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>335.6110819350097</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>46.48092737822598</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>46.06413800536598</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>447.4666339238395</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1017.510341740243</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1017.510341740243</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1017.510341740243</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1017.510341740243</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1017.510341740243</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1587.554049556647</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2134.052835515242</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2303.206900268299</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.206900268299</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.206900268299</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2303.206900268299</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.206900268299</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.391849719736</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>2287.289790339451</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1879.003666639105</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>552.2358829966588</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.7794218333011</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.6891329798543</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.568718306808</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>173.1848799229696</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.79979018915351</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>46.06413800536598</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>72.12781116582357</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>396.6861361320359</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>966.7298439484399</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>966.7298439484399</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>966.7298439484399</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>966.7298439484399</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1592.131121389835</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.303899484175</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.848461932558</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.66981826316</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.333271263128</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1140.215753325127</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.8929990583213</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>800.0255632972012</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.5397840764219</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1125.122298617247</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>952.5605871004724</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>786.6825943019951</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>616.9245905527323</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>440.2175365144885</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>274.6262615403161</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>134.7240872306907</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>46.06413800536598</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>47.88543010132492</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>47.88543010132492</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>466.095311869286</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>925.5791790501991</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1367.837982207844</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1787.507231433625</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2135.014125403967</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2303.206900268299</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2281.789078973671</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2122.547710271668</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1929.495965827113</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1929.495965827113</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1642.540457697543</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1370.514053283835</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1125.122298617247</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.122298617247</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2089.581354807458</v>
+        <v>2518.566862261897</v>
       </c>
       <c r="C11" t="n">
-        <v>1651.438881990881</v>
+        <v>2080.424389445321</v>
       </c>
       <c r="D11" t="n">
-        <v>1215.529097165326</v>
+        <v>1644.514604619765</v>
       </c>
       <c r="E11" t="n">
-        <v>781.7543523236208</v>
+        <v>1210.73985977806</v>
       </c>
       <c r="F11" t="n">
-        <v>781.7543523236208</v>
+        <v>782.8724301872683</v>
       </c>
       <c r="G11" t="n">
-        <v>380.3565209468847</v>
+        <v>381.4745988105321</v>
       </c>
       <c r="H11" t="n">
-        <v>91.22636639010092</v>
+        <v>92.34444425374836</v>
       </c>
       <c r="I11" t="n">
-        <v>90.80957701724093</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="J11" t="n">
-        <v>526.0642644701587</v>
+        <v>162.8300937180277</v>
       </c>
       <c r="K11" t="n">
-        <v>526.0642644701587</v>
+        <v>997.1803856762057</v>
       </c>
       <c r="L11" t="n">
-        <v>1601.124230723018</v>
+        <v>2072.240351929065</v>
       </c>
       <c r="M11" t="n">
-        <v>1601.124230723018</v>
+        <v>2072.240351929065</v>
       </c>
       <c r="N11" t="n">
-        <v>2016.336458746693</v>
+        <v>2072.240351929065</v>
       </c>
       <c r="O11" t="n">
-        <v>2996.516125316999</v>
+        <v>3052.420018499372</v>
       </c>
       <c r="P11" t="n">
-        <v>3824.826000150395</v>
+        <v>3880.729893332767</v>
       </c>
       <c r="Q11" t="n">
-        <v>4371.324786108989</v>
+        <v>4427.228679291362</v>
       </c>
       <c r="R11" t="n">
-        <v>4540.478850862046</v>
+        <v>4596.382744044418</v>
       </c>
       <c r="S11" t="n">
-        <v>4456.826977045883</v>
+        <v>4512.730870228255</v>
       </c>
       <c r="T11" t="n">
-        <v>4236.759749918921</v>
+        <v>4372.690156721057</v>
       </c>
       <c r="U11" t="n">
-        <v>3977.537447235938</v>
+        <v>4113.467854038074</v>
       </c>
       <c r="V11" t="n">
-        <v>3614.920497169765</v>
+        <v>3750.8509039719</v>
       </c>
       <c r="W11" t="n">
-        <v>3210.065042580798</v>
+        <v>3345.995449382933</v>
       </c>
       <c r="X11" t="n">
-        <v>2790.922579160109</v>
+        <v>2926.852985962244</v>
       </c>
       <c r="Y11" t="n">
-        <v>2382.636455459762</v>
+        <v>2518.566862261897</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.9813220085338</v>
+        <v>598.0993998721812</v>
       </c>
       <c r="C12" t="n">
-        <v>490.524860845176</v>
+        <v>491.6429387088235</v>
       </c>
       <c r="D12" t="n">
-        <v>395.4345719917293</v>
+        <v>396.5526498553767</v>
       </c>
       <c r="E12" t="n">
-        <v>301.314157318683</v>
+        <v>302.4322351823304</v>
       </c>
       <c r="F12" t="n">
-        <v>217.9303189348446</v>
+        <v>219.048396798492</v>
       </c>
       <c r="G12" t="n">
-        <v>132.5452292010285</v>
+        <v>133.6633070646759</v>
       </c>
       <c r="H12" t="n">
-        <v>90.80957701724093</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="I12" t="n">
-        <v>116.8732501776985</v>
+        <v>117.991328041346</v>
       </c>
       <c r="J12" t="n">
-        <v>441.4315751439108</v>
+        <v>442.5496530075583</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.137621769635</v>
+        <v>442.5496530075583</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.137621769635</v>
+        <v>442.5496530075583</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.137621769635</v>
+        <v>442.5496530075583</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.137621769635</v>
+        <v>442.5496530075583</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.137621769635</v>
+        <v>442.5496530075583</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.87656040171</v>
+        <v>1637.994638265357</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.04933849605</v>
+        <v>1755.167416359697</v>
       </c>
       <c r="S12" t="n">
-        <v>1690.593900944433</v>
+        <v>1691.71197880808</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.415257275034</v>
+        <v>1561.533335138682</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.078710275003</v>
+        <v>1385.19678813865</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.961192337002</v>
+        <v>1186.079270200649</v>
       </c>
       <c r="W12" t="n">
-        <v>999.6384380701961</v>
+        <v>1000.756515933844</v>
       </c>
       <c r="X12" t="n">
-        <v>844.7710023090762</v>
+        <v>845.8890801727235</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.2852230882969</v>
+        <v>719.4033009519443</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.3034144348527</v>
+        <v>801.4214922985007</v>
       </c>
       <c r="C13" t="n">
-        <v>627.7417029180776</v>
+        <v>628.8597807817256</v>
       </c>
       <c r="D13" t="n">
-        <v>461.8637101196003</v>
+        <v>462.9817879832483</v>
       </c>
       <c r="E13" t="n">
-        <v>292.1057063703375</v>
+        <v>293.2237842339856</v>
       </c>
       <c r="F13" t="n">
-        <v>115.3986523320937</v>
+        <v>116.5167301957418</v>
       </c>
       <c r="G13" t="n">
-        <v>90.80957701724093</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="H13" t="n">
-        <v>90.80957701724093</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="I13" t="n">
-        <v>90.80957701724093</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="J13" t="n">
-        <v>177.3892621819308</v>
+        <v>178.5073400455782</v>
       </c>
       <c r="K13" t="n">
-        <v>452.1477167530663</v>
+        <v>453.2657946167138</v>
       </c>
       <c r="L13" t="n">
-        <v>870.3575985210274</v>
+        <v>871.4756763846749</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.84146570194</v>
+        <v>1330.959543565588</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.100268859585</v>
+        <v>1773.218346723232</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.769518085366</v>
+        <v>2192.887595949014</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.276412055708</v>
+        <v>2540.394489919356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2707.469186920041</v>
+        <v>2708.587264783688</v>
       </c>
       <c r="R13" t="n">
-        <v>2707.469186920041</v>
+        <v>2708.587264783688</v>
       </c>
       <c r="S13" t="n">
-        <v>2548.227818218037</v>
+        <v>2549.345896081685</v>
       </c>
       <c r="T13" t="n">
-        <v>2302.348371796492</v>
+        <v>2303.46644966014</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.915371049597</v>
+        <v>2025.033448913245</v>
       </c>
       <c r="V13" t="n">
-        <v>1736.959862920027</v>
+        <v>1738.077940783676</v>
       </c>
       <c r="W13" t="n">
-        <v>1464.933458506319</v>
+        <v>1466.051536369967</v>
       </c>
       <c r="X13" t="n">
-        <v>1219.541703839732</v>
+        <v>1220.65978170338</v>
       </c>
       <c r="Y13" t="n">
-        <v>992.1220331538398</v>
+        <v>993.2401110174878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.142920993212</v>
+        <v>2523.260998856859</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.000448176635</v>
+        <v>2085.118526040283</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.090663351079</v>
+        <v>1649.208741214727</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.315918509375</v>
+        <v>1215.433996373022</v>
       </c>
       <c r="F14" t="n">
-        <v>786.4484889185826</v>
+        <v>787.56656678223</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0506575418465</v>
+        <v>386.1687354054939</v>
       </c>
       <c r="H14" t="n">
-        <v>95.92050298506271</v>
+        <v>97.03858084871017</v>
       </c>
       <c r="I14" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="J14" t="n">
-        <v>95.50371361220272</v>
+        <v>531.8764789287681</v>
       </c>
       <c r="K14" t="n">
-        <v>929.8540055703807</v>
+        <v>1366.226770886946</v>
       </c>
       <c r="L14" t="n">
-        <v>2004.91397182324</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="M14" t="n">
-        <v>2004.91397182324</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="N14" t="n">
-        <v>2251.043288494783</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="O14" t="n">
-        <v>3231.222955065089</v>
+        <v>3287.126848247461</v>
       </c>
       <c r="P14" t="n">
-        <v>4059.532829898485</v>
+        <v>4115.436723080857</v>
       </c>
       <c r="Q14" t="n">
-        <v>4606.031615857079</v>
+        <v>4661.935509039452</v>
       </c>
       <c r="R14" t="n">
-        <v>4775.185680610136</v>
+        <v>4831.089573792508</v>
       </c>
       <c r="S14" t="n">
-        <v>4691.533806793973</v>
+        <v>4747.437699976345</v>
       </c>
       <c r="T14" t="n">
-        <v>4691.533806793973</v>
+        <v>4527.370472849384</v>
       </c>
       <c r="U14" t="n">
-        <v>4543.343483254295</v>
+        <v>4268.148170166401</v>
       </c>
       <c r="V14" t="n">
-        <v>4180.726533188122</v>
+        <v>3905.531220100227</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.871078599155</v>
+        <v>3500.675765511261</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.728615178466</v>
+        <v>3081.533302090571</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.442491478119</v>
+        <v>2949.560569341767</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.6754586034955</v>
+        <v>602.793536467143</v>
       </c>
       <c r="C15" t="n">
-        <v>495.2189974401378</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D15" t="n">
-        <v>400.1287085866911</v>
+        <v>401.2467864503385</v>
       </c>
       <c r="E15" t="n">
-        <v>306.0082939136448</v>
+        <v>307.1263717772922</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6244555298064</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H15" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="I15" t="n">
-        <v>121.5673867726603</v>
+        <v>122.6854646363078</v>
       </c>
       <c r="J15" t="n">
-        <v>446.1257117388727</v>
+        <v>447.2437896025201</v>
       </c>
       <c r="K15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="L15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="M15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="O15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="Q15" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X15" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676854</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.9793596832586</v>
+        <v>724.0974375469061</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.9997506891341</v>
+        <v>947.1178285527815</v>
       </c>
       <c r="C16" t="n">
-        <v>773.438039172359</v>
+        <v>774.5561170360064</v>
       </c>
       <c r="D16" t="n">
-        <v>607.5600463738817</v>
+        <v>608.6781242375291</v>
       </c>
       <c r="E16" t="n">
-        <v>437.8020426246189</v>
+        <v>438.9201204882663</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0949885863751</v>
+        <v>262.2130664500225</v>
       </c>
       <c r="G16" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="H16" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="I16" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0833987768926</v>
+        <v>183.2014766405401</v>
       </c>
       <c r="K16" t="n">
-        <v>456.8418533480282</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L16" t="n">
-        <v>875.0517351159892</v>
+        <v>876.1698129796367</v>
       </c>
       <c r="M16" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O16" t="n">
-        <v>2196.463654680329</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.163323515003</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.163323515003</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="S16" t="n">
-        <v>2693.924154472318</v>
+        <v>2554.040032676647</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.044708050773</v>
+        <v>2308.160586255102</v>
       </c>
       <c r="U16" t="n">
-        <v>2169.611707303879</v>
+        <v>2029.727585508207</v>
       </c>
       <c r="V16" t="n">
-        <v>1882.656199174309</v>
+        <v>1742.772077378638</v>
       </c>
       <c r="W16" t="n">
-        <v>1610.6297947606</v>
+        <v>1470.745672964929</v>
       </c>
       <c r="X16" t="n">
-        <v>1365.238040094013</v>
+        <v>1225.353918298342</v>
       </c>
       <c r="Y16" t="n">
-        <v>1137.818369408121</v>
+        <v>1138.936447271769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2494.762815666068</v>
+        <v>2246.947607905317</v>
       </c>
       <c r="C17" t="n">
-        <v>2056.620342849492</v>
+        <v>1808.80513508874</v>
       </c>
       <c r="D17" t="n">
-        <v>1620.710558023936</v>
+        <v>1649.208741214727</v>
       </c>
       <c r="E17" t="n">
-        <v>1186.935813182231</v>
+        <v>1215.433996373022</v>
       </c>
       <c r="F17" t="n">
-        <v>759.0683835914392</v>
+        <v>787.56656678223</v>
       </c>
       <c r="G17" t="n">
-        <v>357.670552214703</v>
+        <v>386.1687354054939</v>
       </c>
       <c r="H17" t="n">
-        <v>95.50371361220272</v>
+        <v>97.03858084871017</v>
       </c>
       <c r="I17" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="J17" t="n">
-        <v>341.6330302837453</v>
+        <v>531.8764789287681</v>
       </c>
       <c r="K17" t="n">
-        <v>1175.983322241923</v>
+        <v>1366.226770886946</v>
       </c>
       <c r="L17" t="n">
-        <v>2251.043288494783</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="M17" t="n">
-        <v>2251.043288494783</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="N17" t="n">
-        <v>2251.043288494783</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="O17" t="n">
-        <v>3231.222955065089</v>
+        <v>3287.126848247461</v>
       </c>
       <c r="P17" t="n">
-        <v>4059.532829898485</v>
+        <v>4115.436723080857</v>
       </c>
       <c r="Q17" t="n">
-        <v>4606.031615857079</v>
+        <v>4661.935509039452</v>
       </c>
       <c r="R17" t="n">
-        <v>4775.185680610136</v>
+        <v>4831.089573792508</v>
       </c>
       <c r="S17" t="n">
-        <v>4775.185680610136</v>
+        <v>4747.437699976345</v>
       </c>
       <c r="T17" t="n">
-        <v>4775.185680610136</v>
+        <v>4527.370472849384</v>
       </c>
       <c r="U17" t="n">
-        <v>4515.963377927153</v>
+        <v>4268.148170166401</v>
       </c>
       <c r="V17" t="n">
-        <v>4153.346427860979</v>
+        <v>3905.531220100227</v>
       </c>
       <c r="W17" t="n">
-        <v>3748.490973272013</v>
+        <v>3500.675765511261</v>
       </c>
       <c r="X17" t="n">
-        <v>3329.348509851323</v>
+        <v>3081.533302090571</v>
       </c>
       <c r="Y17" t="n">
-        <v>2921.062386150977</v>
+        <v>2673.247178390225</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.6754586034955</v>
+        <v>602.793536467143</v>
       </c>
       <c r="C18" t="n">
-        <v>495.2189974401378</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D18" t="n">
-        <v>400.1287085866911</v>
+        <v>401.2467864503385</v>
       </c>
       <c r="E18" t="n">
-        <v>306.0082939136448</v>
+        <v>307.1263717772922</v>
       </c>
       <c r="F18" t="n">
-        <v>222.6244555298064</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H18" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="I18" t="n">
-        <v>121.5673867726603</v>
+        <v>122.6854646363078</v>
       </c>
       <c r="J18" t="n">
-        <v>446.1257117388727</v>
+        <v>447.2437896025201</v>
       </c>
       <c r="K18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="L18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="M18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="O18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X18" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676854</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.9793596832586</v>
+        <v>724.0974375469061</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.90192499876</v>
+        <v>947.1178285527815</v>
       </c>
       <c r="C19" t="n">
-        <v>913.3402134819844</v>
+        <v>774.5561170360064</v>
       </c>
       <c r="D19" t="n">
-        <v>747.462220683507</v>
+        <v>608.6781242375291</v>
       </c>
       <c r="E19" t="n">
-        <v>577.7042169342442</v>
+        <v>438.9201204882663</v>
       </c>
       <c r="F19" t="n">
-        <v>400.9971628960004</v>
+        <v>262.2130664500225</v>
       </c>
       <c r="G19" t="n">
-        <v>235.405887921828</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="H19" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="I19" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="J19" t="n">
-        <v>182.0833987768926</v>
+        <v>183.2014766405401</v>
       </c>
       <c r="K19" t="n">
-        <v>456.8418533480282</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L19" t="n">
-        <v>875.0517351159892</v>
+        <v>876.1698129796367</v>
       </c>
       <c r="M19" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O19" t="n">
-        <v>2196.463654680329</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.163323515003</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.163323515003</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="S19" t="n">
-        <v>2552.921954812999</v>
+        <v>2554.040032676647</v>
       </c>
       <c r="T19" t="n">
-        <v>2307.042508391455</v>
+        <v>2308.160586255102</v>
       </c>
       <c r="U19" t="n">
-        <v>2028.60950764456</v>
+        <v>2029.727585508207</v>
       </c>
       <c r="V19" t="n">
-        <v>2022.558373483934</v>
+        <v>1883.774277037956</v>
       </c>
       <c r="W19" t="n">
-        <v>1750.531969070226</v>
+        <v>1611.747872624248</v>
       </c>
       <c r="X19" t="n">
-        <v>1505.140214403638</v>
+        <v>1366.35611795766</v>
       </c>
       <c r="Y19" t="n">
-        <v>1277.720543717747</v>
+        <v>1138.936447271769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2521.726131620352</v>
+        <v>2330.59948172148</v>
       </c>
       <c r="C20" t="n">
-        <v>2083.583658803775</v>
+        <v>1892.457008904903</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.67387397822</v>
+        <v>1456.547224079348</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.899129136515</v>
+        <v>1022.772479237643</v>
       </c>
       <c r="F20" t="n">
-        <v>786.0316995457226</v>
+        <v>787.14977740937</v>
       </c>
       <c r="G20" t="n">
-        <v>384.6338681689865</v>
+        <v>385.7519460326339</v>
       </c>
       <c r="H20" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="I20" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="J20" t="n">
-        <v>341.6330302837453</v>
+        <v>531.8764789287681</v>
       </c>
       <c r="K20" t="n">
-        <v>1175.983322241923</v>
+        <v>1366.226770886946</v>
       </c>
       <c r="L20" t="n">
-        <v>2251.043288494783</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="M20" t="n">
-        <v>2251.043288494783</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="N20" t="n">
-        <v>2251.043288494783</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="O20" t="n">
-        <v>3231.222955065089</v>
+        <v>3287.126848247461</v>
       </c>
       <c r="P20" t="n">
-        <v>4059.532829898485</v>
+        <v>4115.436723080857</v>
       </c>
       <c r="Q20" t="n">
-        <v>4606.031615857079</v>
+        <v>4661.935509039452</v>
       </c>
       <c r="R20" t="n">
-        <v>4775.185680610136</v>
+        <v>4831.089573792508</v>
       </c>
       <c r="S20" t="n">
-        <v>4775.185680610136</v>
+        <v>4831.089573792508</v>
       </c>
       <c r="T20" t="n">
-        <v>4775.185680610136</v>
+        <v>4611.022346665547</v>
       </c>
       <c r="U20" t="n">
-        <v>4542.926693881436</v>
+        <v>4351.800043982564</v>
       </c>
       <c r="V20" t="n">
-        <v>4180.309743815262</v>
+        <v>3989.18309391639</v>
       </c>
       <c r="W20" t="n">
-        <v>3775.454289226295</v>
+        <v>3584.327639327424</v>
       </c>
       <c r="X20" t="n">
-        <v>3356.311825805606</v>
+        <v>3165.185175906734</v>
       </c>
       <c r="Y20" t="n">
-        <v>2948.025702105259</v>
+        <v>2756.899052206388</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.6754586034955</v>
+        <v>602.793536467143</v>
       </c>
       <c r="C21" t="n">
-        <v>495.2189974401378</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D21" t="n">
-        <v>400.1287085866911</v>
+        <v>401.2467864503385</v>
       </c>
       <c r="E21" t="n">
-        <v>306.0082939136448</v>
+        <v>307.1263717772922</v>
       </c>
       <c r="F21" t="n">
-        <v>222.6244555298064</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H21" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="I21" t="n">
-        <v>121.5673867726603</v>
+        <v>122.6854646363078</v>
       </c>
       <c r="J21" t="n">
-        <v>446.1257117388727</v>
+        <v>447.2437896025201</v>
       </c>
       <c r="K21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="L21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="M21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="O21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X21" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676854</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.9793596832586</v>
+        <v>724.0974375469061</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1174.561874224084</v>
+        <v>1030.089562265422</v>
       </c>
       <c r="C22" t="n">
-        <v>1002.000162707309</v>
+        <v>857.527850748647</v>
       </c>
       <c r="D22" t="n">
-        <v>836.1221699088318</v>
+        <v>691.6498579501697</v>
       </c>
       <c r="E22" t="n">
-        <v>666.3641661595691</v>
+        <v>521.8918542009069</v>
       </c>
       <c r="F22" t="n">
-        <v>489.6571121213252</v>
+        <v>345.1848001626631</v>
       </c>
       <c r="G22" t="n">
-        <v>324.0658371471529</v>
+        <v>185.2817407011748</v>
       </c>
       <c r="H22" t="n">
-        <v>184.1636628375274</v>
+        <v>185.2817407011748</v>
       </c>
       <c r="I22" t="n">
-        <v>95.50371361220272</v>
+        <v>96.62179147585017</v>
       </c>
       <c r="J22" t="n">
-        <v>182.0833987768926</v>
+        <v>183.2014766405401</v>
       </c>
       <c r="K22" t="n">
-        <v>456.8418533480282</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L22" t="n">
-        <v>875.0517351159892</v>
+        <v>876.1698129796367</v>
       </c>
       <c r="M22" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O22" t="n">
-        <v>2196.463654680329</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.163323515003</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R22" t="n">
-        <v>2690.745502220374</v>
+        <v>2691.863580084022</v>
       </c>
       <c r="S22" t="n">
-        <v>2531.504133518371</v>
+        <v>2532.622211382019</v>
       </c>
       <c r="T22" t="n">
-        <v>2531.504133518371</v>
+        <v>2286.742764960474</v>
       </c>
       <c r="U22" t="n">
-        <v>2398.173830838829</v>
+        <v>2008.309764213579</v>
       </c>
       <c r="V22" t="n">
-        <v>2111.218322709259</v>
+        <v>1721.354256084009</v>
       </c>
       <c r="W22" t="n">
-        <v>1839.191918295551</v>
+        <v>1449.327851670301</v>
       </c>
       <c r="X22" t="n">
-        <v>1593.800163628963</v>
+        <v>1449.327851670301</v>
       </c>
       <c r="Y22" t="n">
-        <v>1366.380492943071</v>
+        <v>1221.908180984409</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883919</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716168</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731395</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238767</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>126.849915585633</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1750.653604372319</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1478.62719995861</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.756877347711</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309359</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883926</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716175</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731402</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856337</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093272</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.57329640738</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6938,19 +6938,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886287</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030274</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666408</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412731</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799769</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
@@ -7160,10 +7160,10 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835853</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H38" t="n">
         <v>97.56670367581783</v>
@@ -7178,22 +7178,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1367.171683086914</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1367.171683086914</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790891</v>
@@ -7309,22 +7309,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882666</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581783</v>
@@ -7336,7 +7336,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7409,28 +7409,28 @@
         <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>4144.204463667712</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790891</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7546,22 +7546,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581783</v>
@@ -7585,10 +7585,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579744</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7661,13 +7661,13 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790891</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>405.4570665843167</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>575.8017250670748</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>575.8017250670748</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670748</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>85.51751394880796</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.839688985817112</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>71.61862508801958</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>419.4062909330046</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>248.6154713853966</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>854.3839506137938</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>248.6154713853965</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>854.3839506137938</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>248.6154713853965</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>854.3839506137938</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10115,10 +10115,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>565.8642197954468</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>996.9910187763885</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>741.5461819426055</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>35.05565879988277</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.912025134278</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>79.22624848356551</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627263</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>109.9216593518734</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>273.5502570420267</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>273.5502570420267</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>26.6936827947406</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.0953302292544</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>190.3222804848941</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556917</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>26.69368279474057</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.631333357557224</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>23.42369649844647</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>816485.2730263151</v>
+        <v>809504.4291367047</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>816485.2730263151</v>
+        <v>821473.873849382</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>819592.7654950644</v>
+        <v>821473.873849382</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>748581.5461905851</v>
+        <v>755277.8083215732</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776695.1240911302</v>
+        <v>783391.3862221184</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776695.1240911302</v>
+        <v>783391.3862221184</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776695.1240911302</v>
+        <v>783391.3862221185</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817164.1225654486</v>
+        <v>817164.1225654487</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831098.7261950329</v>
+        <v>817164.1225654486</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134036.8299726021</v>
+        <v>132041.9225204892</v>
       </c>
       <c r="C2" t="n">
         <v>134036.8299726021</v>
@@ -26320,16 +26320,16 @@
         <v>134036.8299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>120659.9305037977</v>
+        <v>121739.2658513919</v>
       </c>
       <c r="F2" t="n">
-        <v>125191.4105716075</v>
+        <v>126270.7459192017</v>
       </c>
       <c r="G2" t="n">
-        <v>125191.4105716075</v>
+        <v>126270.7459192017</v>
       </c>
       <c r="H2" t="n">
-        <v>125191.4105716075</v>
+        <v>126270.7459192017</v>
       </c>
       <c r="I2" t="n">
         <v>131714.396034338</v>
@@ -26338,13 +26338,13 @@
         <v>131714.3960343381</v>
       </c>
       <c r="K2" t="n">
-        <v>131714.3960343381</v>
+        <v>131714.396034338</v>
       </c>
       <c r="L2" t="n">
-        <v>131714.3960343381</v>
+        <v>131714.396034338</v>
       </c>
       <c r="M2" t="n">
-        <v>134036.8299726021</v>
+        <v>131714.396034338</v>
       </c>
       <c r="N2" t="n">
         <v>134036.8299726021</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47062.26763611544</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>167000.0461160949</v>
+        <v>143789.3363792629</v>
       </c>
       <c r="F3" t="n">
         <v>16812.40227510031</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22460.77347719287</v>
+        <v>18744.26868245545</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38344.77152333031</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152372.8480649389</v>
+        <v>120011.7817892069</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>12988.56827099792</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>126202.7902621333</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>149865.9303752284</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25360.62206283271</v>
+        <v>25587.47960961815</v>
       </c>
       <c r="F4" t="n">
-        <v>26313.06048132962</v>
+        <v>26539.91802811505</v>
       </c>
       <c r="G4" t="n">
-        <v>26313.06048132961</v>
+        <v>26539.91802811505</v>
       </c>
       <c r="H4" t="n">
-        <v>26313.06048132961</v>
+        <v>26539.91802811505</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26448,10 +26448,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>33026.43656683595</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353612</v>
+        <v>42419.67665353615</v>
       </c>
       <c r="O4" t="n">
         <v>42419.67665353612</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>68636.34488407813</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69015.27853310309</v>
+        <v>69865.01770947516</v>
       </c>
       <c r="F5" t="n">
-        <v>72582.82234527406</v>
+        <v>73432.56152164613</v>
       </c>
       <c r="G5" t="n">
-        <v>72582.82234527406</v>
+        <v>73432.56152164613</v>
       </c>
       <c r="H5" t="n">
-        <v>72582.82234527406</v>
+        <v>73432.56152164613</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>75515.6147260897</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249011.6452847923</v>
+        <v>-292093.0399619678</v>
       </c>
       <c r="C6" t="n">
-        <v>-106820.3446250824</v>
+        <v>-70932.99482117548</v>
       </c>
       <c r="D6" t="n">
-        <v>-131527.7129228198</v>
+        <v>-70932.99482117551</v>
       </c>
       <c r="E6" t="n">
-        <v>-140716.016208233</v>
+        <v>-117625.5434881764</v>
       </c>
       <c r="F6" t="n">
-        <v>9483.12546990352</v>
+        <v>9408.203253806254</v>
       </c>
       <c r="G6" t="n">
-        <v>26295.52774500386</v>
+        <v>26220.60552890654</v>
       </c>
       <c r="H6" t="n">
-        <v>26295.52774500384</v>
+        <v>26220.60552890656</v>
       </c>
       <c r="I6" t="n">
-        <v>3851.305201149982</v>
+        <v>7544.585656504753</v>
       </c>
       <c r="J6" t="n">
-        <v>-84702.3866666473</v>
+        <v>-148362.4943787459</v>
       </c>
       <c r="K6" t="n">
-        <v>26312.07867834288</v>
+        <v>26288.85433896021</v>
       </c>
       <c r="L6" t="n">
-        <v>-12032.69284498742</v>
+        <v>26288.85433896021</v>
       </c>
       <c r="M6" t="n">
-        <v>-130445.6131974334</v>
+        <v>-93722.9274502467</v>
       </c>
       <c r="N6" t="n">
-        <v>16101.53859297629</v>
+        <v>3112.970321978326</v>
       </c>
       <c r="O6" t="n">
-        <v>16101.53859297631</v>
+        <v>16101.53859297634</v>
       </c>
       <c r="P6" t="n">
         <v>16101.53859297634</v>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874737</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>575.8017250670748</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1135.119712715511</v>
+        <v>1149.095686011105</v>
       </c>
       <c r="F4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448127</v>
       </c>
       <c r="G4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448127</v>
       </c>
       <c r="H4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448127</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5058675469705</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>559.3179876484367</v>
+        <v>481.5804794032476</v>
       </c>
       <c r="F4" t="n">
         <v>58.67670743702251</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.46408323221135</v>
+        <v>70.48810993661823</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469705</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484367</v>
+        <v>481.5804794032476</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469705</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484367</v>
+        <v>481.5804794032476</v>
       </c>
       <c r="N4" t="n">
         <v>58.67670743702251</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>84.84605230791985</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,19 +27430,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>55.99866050283276</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.55871974923696</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>287.9690884469953</v>
+        <v>229.9275620014095</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.44692185959781</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>5.148518520149452</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>209.7992567398561</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>266.0749398648395</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>52.29942495722011</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874742</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="41">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>405.4570665843167</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>575.8017250670748</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>575.8017250670748</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670748</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>85.51751394880796</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.839688985817112</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>71.61862508801958</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>419.4062909330046</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35656,13 +35656,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>248.6154713853966</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>854.3839506137938</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458542</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>248.6154713853965</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35896,10 +35896,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>854.3839506137938</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458542</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>248.6154713853965</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36133,10 +36133,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>854.3839506137938</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458542</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36835,10 +36835,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>565.8642197954468</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37233,16 +37233,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821539</v>
@@ -37306,22 +37306,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>996.9910187763885</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37707,7 +37707,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,22 +37786,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>741.5461819426055</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,16 +38029,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
